--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_4_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-503143.4823297319</v>
+        <v>-507857.393284096</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12252690.57398711</v>
+        <v>12250330.65642544</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>203.1253492016936</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>141.9611745741354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -789,10 +789,10 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>207.9625118881446</v>
+        <v>101.3468060953248</v>
       </c>
       <c r="V3" t="n">
         <v>220.3146016126436</v>
@@ -801,7 +801,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>152.5146355837222</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -820,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>101.9878479526848</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>38.52804925360355</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>206.9399414326527</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>81.20804196345225</v>
       </c>
     </row>
     <row r="6">
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>50.6435372072262</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1038,7 +1038,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
-        <v>2.236264487170442</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
         <v>177.5210747552478</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>21.77459865477362</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>86.64940239199018</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>57.39201399302399</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>332.8924758066172</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>111.1208004946594</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>103.9123612500496</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.411485859551</v>
+        <v>0.004793142211894974</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
@@ -1382,13 +1382,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>282.4931478642526</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1424,13 @@
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>10.6556929826332</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>95.49320096681699</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,13 +1582,13 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>89.04550438119885</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1610,10 +1610,10 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>215.2505143278292</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
@@ -1622,7 +1622,7 @@
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>162.997173176239</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993875</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>40.58491194866536</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681699</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456096</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901688</v>
+        <v>51.58366707901689</v>
       </c>
       <c r="S16" t="n">
-        <v>66.69208978862638</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1841,19 +1841,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C17" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665142</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799149</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697375</v>
       </c>
       <c r="G17" t="n">
         <v>278.6711586412924</v>
@@ -1862,7 +1862,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875351</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277547</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059423</v>
       </c>
       <c r="U17" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658109</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.9959691888038</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.1430974390862</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092593</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380504</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357231</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596444</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253649</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708418</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,16 +2050,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369165</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978637</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117995</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325497</v>
@@ -2068,7 +2068,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.5209712559386</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
@@ -2087,7 +2087,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
@@ -2099,7 +2099,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U20" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W20" t="n">
         <v>236.929075365811</v>
@@ -2147,7 +2147,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E22" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G22" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V22" t="n">
         <v>132.9595824117996</v>
@@ -2305,7 +2305,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
@@ -2324,7 +2324,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
@@ -2336,7 +2336,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U23" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W23" t="n">
         <v>236.929075365811</v>
@@ -2384,7 +2384,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V25" t="n">
         <v>132.9595824117996</v>
@@ -2542,7 +2542,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211825</v>
+        <v>287.5954430211824</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -2807,10 +2807,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H29" t="n">
-        <v>226.8509454548578</v>
+        <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414332</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404344</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007176</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035417</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.0855074921939</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507301</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484028</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723241</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380445</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497638</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.6707049994323</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093887</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619109</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841669</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838878</v>
+        <v>24.17382596574988</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828891</v>
+        <v>52.06849973565001</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970374</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308068</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158949</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431723</v>
+        <v>70.57601873167833</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459964</v>
+        <v>55.72314698196074</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643936</v>
+        <v>41.29686219380046</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931847</v>
+        <v>41.22330424667958</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908574</v>
+        <v>42.97275566644684</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147788</v>
+        <v>53.79159358883898</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804992</v>
+        <v>41.14384575541102</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922185</v>
+        <v>18.98356133658295</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367777</v>
+        <v>9.88205970103887</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920509</v>
+        <v>88.00800320656619</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.8044840678081</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754242</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988131</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3566,7 +3566,7 @@
         <v>236.929075365811</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E41" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,7 +3986,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
@@ -4201,7 +4201,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.394930190808</v>
+        <v>659.8431226740864</v>
       </c>
       <c r="C2" t="n">
-        <v>1600.219428693739</v>
+        <v>659.8431226740864</v>
       </c>
       <c r="D2" t="n">
-        <v>1600.219428693739</v>
+        <v>659.8431226740864</v>
       </c>
       <c r="E2" t="n">
-        <v>1197.635903810283</v>
+        <v>659.8431226740864</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475493</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L2" t="n">
-        <v>536.8159511132837</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="M2" t="n">
-        <v>1075.074736123376</v>
+        <v>679.4733113836954</v>
       </c>
       <c r="N2" t="n">
-        <v>1602.886019760838</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O2" t="n">
-        <v>2042.925620653166</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P2" t="n">
-        <v>2042.925620653166</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023268</v>
+        <v>1870.655869043496</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023268</v>
+        <v>1647.155266602912</v>
       </c>
       <c r="U2" t="n">
-        <v>2136.790056023268</v>
+        <v>1391.402537037511</v>
       </c>
       <c r="V2" t="n">
-        <v>2136.790056023268</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="W2" t="n">
-        <v>2136.790056023268</v>
+        <v>1049.29572774103</v>
       </c>
       <c r="X2" t="n">
-        <v>2136.790056023268</v>
+        <v>659.8431226740864</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.394930190808</v>
+        <v>659.8431226740864</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>476.3497876767087</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>480.0174418653852</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653852</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875477</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X3" t="n">
-        <v>1022.175859459279</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y3" t="n">
-        <v>842.8616425347859</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>354.6073235307462</v>
+        <v>299.9998260298797</v>
       </c>
       <c r="C4" t="n">
-        <v>354.6073235307462</v>
+        <v>299.9998260298797</v>
       </c>
       <c r="D4" t="n">
-        <v>198.974210433261</v>
+        <v>299.9998260298797</v>
       </c>
       <c r="E4" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F4" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G4" t="n">
-        <v>198.974210433261</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>583.330228098702</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>583.330228098702</v>
       </c>
       <c r="V4" t="n">
-        <v>393.5245449990326</v>
+        <v>583.330228098702</v>
       </c>
       <c r="W4" t="n">
-        <v>354.6073235307462</v>
+        <v>299.9998260298797</v>
       </c>
       <c r="X4" t="n">
-        <v>354.6073235307462</v>
+        <v>299.9998260298797</v>
       </c>
       <c r="Y4" t="n">
-        <v>354.6073235307462</v>
+        <v>299.9998260298797</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>412.8394060748674</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="C5" t="n">
-        <v>412.8394060748674</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="D5" t="n">
-        <v>203.809162203501</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E5" t="n">
-        <v>203.809162203501</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>74.88432743274757</v>
       </c>
       <c r="K5" t="n">
-        <v>188.145432303583</v>
+        <v>74.88432743274757</v>
       </c>
       <c r="L5" t="n">
-        <v>673.8990329354857</v>
+        <v>74.88432743274757</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354857</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572948</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465276</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964319</v>
+        <v>1685.148180317391</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964319</v>
+        <v>1685.148180317391</v>
       </c>
       <c r="V5" t="n">
-        <v>1970.276500964319</v>
+        <v>1343.041371020909</v>
       </c>
       <c r="W5" t="n">
-        <v>1599.277465932606</v>
+        <v>1343.041371020909</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.824860865663</v>
+        <v>953.5887659539659</v>
       </c>
       <c r="Y5" t="n">
-        <v>813.3341517862643</v>
+        <v>871.5604407383576</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284334</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767087</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="L6" t="n">
-        <v>959.915873575022</v>
+        <v>638.1843148743791</v>
       </c>
       <c r="M6" t="n">
-        <v>1402.159093172764</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="N6" t="n">
-        <v>1940.417878182856</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.417878182856</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635811</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.93524953568</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734588</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.88829441323</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784297</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1176.231046917584</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="C7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="D7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="E7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="F7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="G7" t="n">
-        <v>362.4469059700812</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="H7" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865298</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475493</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>920.95572520216</v>
       </c>
       <c r="S7" t="n">
-        <v>618.2256087514338</v>
+        <v>718.1396413847094</v>
       </c>
       <c r="T7" t="n">
-        <v>618.2256087514338</v>
+        <v>482.4205895529436</v>
       </c>
       <c r="U7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="V7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="W7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="X7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.7009598706356</v>
+        <v>196.9817977948445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1377.774808715765</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="C8" t="n">
-        <v>984.5993072186952</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="D8" t="n">
-        <v>984.5993072186952</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E8" t="n">
-        <v>984.5993072186952</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>567.704868748673</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
         <v>1832.61545280471</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2199.134950018231</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>1975.634347577648</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="U8" t="n">
-        <v>1719.881618012246</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="V8" t="n">
-        <v>1377.774808715765</v>
+        <v>1991.400565295412</v>
       </c>
       <c r="W8" t="n">
-        <v>1377.774808715765</v>
+        <v>1991.400565295412</v>
       </c>
       <c r="X8" t="n">
-        <v>1377.774808715765</v>
+        <v>1601.947960228469</v>
       </c>
       <c r="Y8" t="n">
-        <v>1377.774808715765</v>
+        <v>1601.947960228469</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>480.1670983834975</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1065.6651033901</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N9" t="n">
-        <v>1651.163108396702</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
-        <v>2167.683390987683</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>712.6157704527848</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C10" t="n">
-        <v>712.6157704527848</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D10" t="n">
-        <v>556.9826573552996</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>401.4238452145021</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>233.1697913139477</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>712.6157704527848</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="X10" t="n">
-        <v>712.6157704527848</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="Y10" t="n">
-        <v>712.6157704527848</v>
+        <v>558.3592198243409</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1589.282783693955</v>
+        <v>2033.222718167679</v>
       </c>
       <c r="C11" t="n">
-        <v>1589.282783693955</v>
+        <v>1711.843491816804</v>
       </c>
       <c r="D11" t="n">
-        <v>1275.637930056816</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>944.8506803195548</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>599.7525169957269</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G11" t="n">
-        <v>314.405902991431</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,34 +5057,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.23910529302</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2859.53477799863</v>
       </c>
       <c r="U11" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="V11" t="n">
-        <v>2859.534777998631</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.332018113113</v>
+        <v>2675.578323579423</v>
       </c>
       <c r="X11" t="n">
-        <v>2242.675688192363</v>
+        <v>2357.921993658674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1917.981254259158</v>
+        <v>2033.227559725469</v>
       </c>
     </row>
     <row r="12">
@@ -5103,10 +5103,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E12" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F12" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G12" t="n">
         <v>199.803798091603</v>
@@ -5115,28 +5115,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.8503184534339</v>
+        <v>569.5655503012284</v>
       </c>
       <c r="C13" t="n">
-        <v>399.8503184534339</v>
+        <v>471.1567075134116</v>
       </c>
       <c r="D13" t="n">
-        <v>399.8503184534339</v>
+        <v>387.3198695621202</v>
       </c>
       <c r="E13" t="n">
-        <v>389.0869922083498</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675166</v>
+        <v>303.5573325675165</v>
       </c>
       <c r="G13" t="n">
-        <v>207.099553813156</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H13" t="n">
         <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="T13" t="n">
-        <v>1332.809865128935</v>
+        <v>1280.705150907706</v>
       </c>
       <c r="U13" t="n">
-        <v>1119.16734851703</v>
+        <v>1190.760196987304</v>
       </c>
       <c r="V13" t="n">
-        <v>924.9842784840482</v>
+        <v>996.5771269543216</v>
       </c>
       <c r="W13" t="n">
-        <v>713.4501515614197</v>
+        <v>996.5771269543216</v>
       </c>
       <c r="X13" t="n">
-        <v>551.1661044905967</v>
+        <v>834.2930798834984</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.8503184534339</v>
+        <v>682.9772938463357</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1618.175009429186</v>
+        <v>1565.393856750813</v>
       </c>
       <c r="C14" t="n">
-        <v>1296.795783078311</v>
+        <v>1244.014630399937</v>
       </c>
       <c r="D14" t="n">
-        <v>1079.371021131009</v>
+        <v>1244.014630399937</v>
       </c>
       <c r="E14" t="n">
-        <v>748.5837713937468</v>
+        <v>913.2273806626754</v>
       </c>
       <c r="F14" t="n">
-        <v>403.4856080699185</v>
+        <v>568.129217338847</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>226.7627369730438</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411553</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2835.645851055488</v>
       </c>
       <c r="W14" t="n">
-        <v>2589.224243848344</v>
+        <v>2536.44309116997</v>
       </c>
       <c r="X14" t="n">
-        <v>2271.567913927594</v>
+        <v>2218.78676124922</v>
       </c>
       <c r="Y14" t="n">
-        <v>1946.873479994389</v>
+        <v>1894.092327316016</v>
       </c>
     </row>
     <row r="15">
@@ -5355,19 +5355,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L15" t="n">
-        <v>596.176270190801</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O15" t="n">
         <v>1740.468202408463</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>318.2838994630213</v>
+        <v>528.4906955503742</v>
       </c>
       <c r="C16" t="n">
-        <v>219.8750566752044</v>
+        <v>430.0818527625573</v>
       </c>
       <c r="D16" t="n">
-        <v>219.8750566752044</v>
+        <v>430.0818527625573</v>
       </c>
       <c r="E16" t="n">
-        <v>219.8750566752044</v>
+        <v>389.0869922083498</v>
       </c>
       <c r="F16" t="n">
-        <v>219.8750566752044</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
         <v>123.4172779208438</v>
@@ -5434,22 +5434,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1377.262180332039</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1213.339403646467</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>999.6968870345622</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="V16" t="n">
-        <v>805.5138170015804</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="W16" t="n">
-        <v>593.9796900789518</v>
+        <v>955.5022722034674</v>
       </c>
       <c r="X16" t="n">
-        <v>431.6956430081287</v>
+        <v>793.2182251326444</v>
       </c>
       <c r="Y16" t="n">
-        <v>431.6956430081287</v>
+        <v>641.9024390954817</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803429</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924214</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5543,10 +5543,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V17" t="n">
         <v>2644.789635573994</v>
@@ -5555,7 +5555,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5598,10 +5598,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N18" t="n">
         <v>1223.947919817482</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885588</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369566</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218799</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634909</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072654</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462908</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5689,34 +5689,34 @@
         <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918796</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.258445116189</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194218</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.302171233008</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983996</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974515</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.7795079292424</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5832,22 +5832,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>67.69877031229888</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>149.5338114222407</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>313.6614512960405</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296503</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,22 +6014,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443165</v>
@@ -6069,22 +6069,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,46 +6151,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>499.9530296343043</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>683.1426636655135</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214671</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1089.200323498046</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6230,22 +6230,22 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1802.420903106096</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.118932483141</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
@@ -6263,13 +6263,13 @@
         <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>186.4798411672776</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>670.0459270655908</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.817576692272</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N27" t="n">
-        <v>1953.595547902831</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
-        <v>1953.595547902831</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6367,7 +6367,7 @@
         <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879678</v>
@@ -6388,16 +6388,16 @@
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225743</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P28" t="n">
         <v>1592.975474628627</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286447</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988163</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026479</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="29">
@@ -6437,55 +6437,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1256.420003061516</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1802.420903106096</v>
+        <v>1925.441780118091</v>
       </c>
       <c r="N29" t="n">
-        <v>2423.283548473132</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3397.613364956129</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
         <v>3596.670073605751</v>
@@ -6494,19 +6494,19 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6534,22 +6534,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6601,34 +6601,34 @@
         <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414159</v>
+        <v>368.3732297414158</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232842</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192013</v>
       </c>
       <c r="L31" t="n">
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6658,10 +6658,10 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286449</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
         <v>594.5974356026481</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993077</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.3807258108106</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835509</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>726.6260980185677</v>
+        <v>571.1872645386351</v>
       </c>
       <c r="L32" t="n">
-        <v>1325.219482464167</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1871.220382508748</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2399.03166614621</v>
+        <v>2218.616740534051</v>
       </c>
       <c r="O32" t="n">
-        <v>2944.344359765609</v>
+        <v>2658.656341426379</v>
       </c>
       <c r="P32" t="n">
-        <v>3292.53185189713</v>
+        <v>3006.843833557901</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038079</v>
+        <v>3303.341514273833</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038079</v>
+        <v>3377.756780117255</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.55952728194</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076159</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>603.6046907274472</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>983.9753497826122</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.223615996512</v>
+        <v>365.671367692972</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918659</v>
+        <v>309.3853606404863</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237453</v>
+        <v>267.6713584245263</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123125</v>
+        <v>226.031657165254</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546501</v>
+        <v>182.6248332597521</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431901</v>
+        <v>86.73045008374203</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076159</v>
+        <v>67.5551356023451</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074066</v>
+        <v>337.0682132920807</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082768</v>
+        <v>612.8479737408633</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736111</v>
+        <v>799.1395520791273</v>
       </c>
       <c r="N34" t="n">
-        <v>1076.31006990482</v>
+        <v>982.3291861103364</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.686073727027</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451833</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.785962625019</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395505</v>
+        <v>835.7257283273684</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000928</v>
+        <v>666.3144371400713</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124405</v>
+        <v>546.1532258045795</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584486</v>
+        <v>436.9602755027481</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498593</v>
@@ -6929,16 +6929,16 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H35" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924243</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L35" t="n">
         <v>1059.071548358934</v>
@@ -6962,13 +6962,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573995</v>
@@ -6977,10 +6977,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -7023,10 +7023,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1606.310991511064</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128483</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>776.8456480823215</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>939.5504151240295</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1059.426580900608</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7251,19 +7251,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>965.7235964838002</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
@@ -7403,13 +7403,13 @@
         <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7433,25 +7433,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.295701071062</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7482,31 +7482,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885597</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072681</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462911</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7576,43 +7576,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
-        <v>806.6193906797591</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214671</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498046</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868097</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918812</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161905</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194232</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330092</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984008</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7728,22 +7728,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>96.81867335321709</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>580.3847592515303</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>1208.156408878212</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7810,46 +7810,46 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>845.8474307072231</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>965.7235964838017</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>143.0584031792374</v>
@@ -7985,19 +7985,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>576.0037168614499</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>277.6879399179681</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8061,16 +8061,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>93.76504805760153</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886033</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>574.7607069788179</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>151.3981012518502</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>643.9083723889793</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>539.0974448753136</v>
+        <v>378.6385200912995</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886033</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,22 +8450,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>427.440794103012</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
@@ -8532,25 +8532,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>663.2434089132782</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>287.0481265258778</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8705,7 +8705,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475122</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9003,13 +9003,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>515.2544481366739</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9018,7 +9018,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263909</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
@@ -9246,13 +9246,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>92.38712204931191</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N18" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9480,25 +9480,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,25 +9717,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,22 +9954,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>292.8810966026117</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118427</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>306.5431715280891</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118434</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,13 +10908,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,25 +11376,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>124.6469814435369</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>325.4066927173391</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>55.45966769789234</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>72.26921864202438</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>122.4605870645873</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>95.25789077293778</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>86.76673435820332</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372789</v>
+        <v>65.87543334372791</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177847</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465758</v>
+        <v>42.33999967599224</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442485</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338903</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>63.0175207959178</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-1.147182855075665e-12</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1071372.221391846</v>
+        <v>1070169.126164325</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1071372.221391846</v>
+        <v>1070169.126164325</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959963.6054877101</v>
+        <v>959963.6054877099</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959963.6054877101</v>
+        <v>959963.60548771</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1079510.58710076</v>
+        <v>1079510.587100761</v>
       </c>
     </row>
     <row r="8">
@@ -26317,7 +26317,7 @@
         <v>234431.8315213638</v>
       </c>
       <c r="D2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213637</v>
       </c>
       <c r="E2" t="n">
         <v>207166.7304517206</v>
@@ -26326,7 +26326,7 @@
         <v>207166.7304517205</v>
       </c>
       <c r="G2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.831521364</v>
       </c>
       <c r="H2" t="n">
         <v>234431.8315213638</v>
@@ -26335,13 +26335,13 @@
         <v>234431.8315213638</v>
       </c>
       <c r="J2" t="n">
-        <v>234431.8315213642</v>
+        <v>234431.831521364</v>
       </c>
       <c r="K2" t="n">
         <v>234431.831521364</v>
       </c>
       <c r="L2" t="n">
-        <v>234431.8315213634</v>
+        <v>234431.8315213639</v>
       </c>
       <c r="M2" t="n">
         <v>234431.8315213638</v>
@@ -26350,7 +26350,7 @@
         <v>234431.8315213638</v>
       </c>
       <c r="O2" t="n">
-        <v>234431.8315213638</v>
+        <v>234431.8315213639</v>
       </c>
       <c r="P2" t="n">
         <v>234431.8315213638</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062208</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668199</v>
+        <v>47425.32553668204</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.2417753968</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962307</v>
+        <v>43252.52447081111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.6940427712</v>
+        <v>27767.6940427711</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="C4" t="n">
-        <v>210684.9094840231</v>
+        <v>216193.9885327255</v>
       </c>
       <c r="D4" t="n">
         <v>200129.9340579131</v>
@@ -26445,7 +26445,7 @@
         <v>174211.0764483299</v>
       </c>
       <c r="L4" t="n">
-        <v>173955.5025478465</v>
+        <v>173822.1079387918</v>
       </c>
       <c r="M4" t="n">
         <v>173460.5839839468</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984052</v>
+        <v>53186.0196998405</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
@@ -26491,13 +26491,13 @@
         <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,7 +26506,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225142.3273945288</v>
+        <v>-220790.8815802341</v>
       </c>
       <c r="C6" t="n">
-        <v>-42937.379102673</v>
+        <v>-46932.22454617888</v>
       </c>
       <c r="D6" t="n">
-        <v>-50105.70012434453</v>
+        <v>-57841.989347736</v>
       </c>
       <c r="E6" t="n">
-        <v>-83843.51821452903</v>
+        <v>-84053.24976121853</v>
       </c>
       <c r="F6" t="n">
-        <v>28279.04325951546</v>
+        <v>28069.31171282589</v>
       </c>
       <c r="G6" t="n">
-        <v>-44623.84731478459</v>
+        <v>-44623.84731478449</v>
       </c>
       <c r="H6" t="n">
-        <v>2801.478221897356</v>
+        <v>2801.478221897385</v>
       </c>
       <c r="I6" t="n">
-        <v>2801.478221897356</v>
+        <v>2801.478221897269</v>
       </c>
       <c r="J6" t="n">
-        <v>-210240.4393753876</v>
+        <v>-203724.1542208148</v>
       </c>
       <c r="K6" t="n">
         <v>-3438.290180885415</v>
       </c>
       <c r="L6" t="n">
-        <v>-58620.87911550722</v>
+        <v>-62669.71632597894</v>
       </c>
       <c r="M6" t="n">
-        <v>-39399.35123772576</v>
+        <v>-40451.04624891374</v>
       </c>
       <c r="N6" t="n">
-        <v>2801.478221897356</v>
+        <v>2801.478221897327</v>
       </c>
       <c r="O6" t="n">
-        <v>-24966.21582087388</v>
+        <v>-24966.21582087372</v>
       </c>
       <c r="P6" t="n">
-        <v>2801.478221897472</v>
+        <v>2801.478221897385</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26695,10 @@
         <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095198</v>
+        <v>844.4391950293139</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014444</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.070302219246</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551338</v>
+        <v>17.58004954287445</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.709617553464</v>
+        <v>34.70961755346387</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321488</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773709</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407333</v>
+        <v>117.126871304279</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085248</v>
+        <v>59.28165692085256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346393</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344366</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485845</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>209.6001448836284</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>250.5646274144694</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>106.6157057928199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>34.89937128976629</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27540,10 +27540,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>52.0153760667047</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>241.9690487945306</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>174.6467760628462</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>311.3177600251527</v>
       </c>
     </row>
     <row r="6">
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>124.5704364758544</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27758,7 +27758,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>185.177742386318</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>100.8873808189752</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>195.9350014485279</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>351.6391139638529</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>5.793265396899585</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>169.3762975534747</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>116.9685793214735</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473192</v>
+        <v>71.07831239473191</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y17" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="C19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="D19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="E19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="F19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="G19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="H19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="I19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="J19" t="n">
         <v>30.07448747215907</v>
@@ -28761,34 +28761,34 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2979821082773</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082765</v>
       </c>
       <c r="S19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="T19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="V19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="W19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="X19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
       <c r="Y19" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155845</v>
       </c>
     </row>
     <row r="20">
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>35.71049010668771</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28989,16 +28989,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.636002634527912</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29080,7 +29080,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>37.61298457733328</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528353</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29232,16 +29232,16 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082768</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>86.65052755599572</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431641</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q29" t="n">
-        <v>30.27223765901226</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.9912744743165</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>48.65992738832921</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>81.10808140893357</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>106.8683420224731</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>18.71446861253895</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.71049010668751</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30286,7 +30286,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155846</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y38" t="n">
         <v>130.3599693155844</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>5.636002634528381</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>128.2979821082774</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733463</v>
       </c>
       <c r="S41" t="n">
         <v>130.3599693155844</v>
@@ -30648,10 +30648,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>128.2979821082768</v>
+        <v>128.2979821082786</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30882,7 +30882,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,37 +30891,37 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>5.636002634529945</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34705,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>426.8852255236658</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>133.1892414995759</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>3.704701200683298</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>482.073148089929</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>33.71826330950414</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>490.6602026584875</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>446.7103228260017</v>
+        <v>286.2513980419876</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344366</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,22 +35170,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725203</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
@@ -35252,25 +35252,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>570.8562868639664</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>199.9647617065632</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,7 +35425,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.704537506587</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>425.1941012797557</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35738,7 +35738,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>249.769892037502</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257285</v>
+        <v>41.00382492257284</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488441</v>
+        <v>74.53507640488439</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,13 +35966,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N18" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q19" t="n">
-        <v>131.7547461184298</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634527716</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.636002634528635</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,16 +36285,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724861</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36376,7 +36376,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565483</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36528,16 +36528,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526633</v>
       </c>
       <c r="P25" t="n">
-        <v>251.4470054535426</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>5.636002634527946</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>619.7932383009069</v>
+        <v>563.4149484039233</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>205.7977317832971</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101033</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.9849246700714</v>
+        <v>280.7039614853757</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698322</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215743</v>
       </c>
       <c r="K31" t="n">
-        <v>176.6529321611264</v>
+        <v>176.6529321611265</v>
       </c>
       <c r="L31" t="n">
         <v>259.7767692963365</v>
@@ -37002,13 +37002,13 @@
         <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
-        <v>258.3395240113953</v>
+        <v>258.3395240113954</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446898</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.44733902616</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>411.2683678201088</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>533.1427107449111</v>
+        <v>614.2507921538447</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>299.4926067837691</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.16693519537665</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>216.4828246711708</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>247.8874524576768</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791197</v>
+        <v>82.70543230055085</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>189.529999709283</v>
       </c>
       <c r="L34" t="n">
-        <v>272.121952122091</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>277.1281693097888</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047504971</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.16725411683999</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,13 +37628,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>193.8093140873203</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>249.3850182462355</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37944,10 +37944,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N43" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
         <v>164.3482495370789</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634527946</v>
+        <v>5.636002634529784</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>35.0500461102036</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,16 +38187,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>169.9842521716088</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>5.636002634529554</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
